--- a/20% das linhas do Dataset.xlsx
+++ b/20% das linhas do Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\GitHub\ProjetoFinalBigData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F88B681-240F-4C44-91B6-4E1AD0C59B67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4210EFE4-9F9F-4B77-8C14-64B5277C2412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{499B4572-3BFB-41ED-886B-01FC6895ACA9}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" xr2:uid="{499B4572-3BFB-41ED-886B-01FC6895ACA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -112,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
